--- a/test_type_understanding/04_画面仕様書レビュー表.xlsx
+++ b/test_type_understanding/04_画面仕様書レビュー表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/課題用ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C986C0-8B07-814F-972C-17D0AEC5091A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A614F91-65B5-AF4D-B599-CDC59AE91373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1000" windowWidth="27900" windowHeight="16400" xr2:uid="{9F3A7860-5D63-0F4D-BC00-7B653B0FAC58}"/>
+    <workbookView xWindow="31040" yWindow="3180" windowWidth="27900" windowHeight="16400" xr2:uid="{9F3A7860-5D63-0F4D-BC00-7B653B0FAC58}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>画面仕様書</t>
     <rPh sb="0" eb="2">
@@ -101,6 +101,13 @@
     <t>メニューページの2-4メニュー詳細にて、要件定義書のサイト構成では「フードメニュー、ドリンクメニューの詳細な情報を掲載する」と記載されていますが、画面仕様書ではフードメニューのみが掲載されています。こちらは問題ありませんでしょうか。</t>
     <rPh sb="65" eb="67">
       <t xml:space="preserve">ヨウケンテイガメン シガメン シヨウショ ケイサイ モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象画面</t>
+    <rPh sb="0" eb="4">
+      <t>タイショウガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -547,23 +554,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB250EF3-7E72-CA4C-BFCC-E023805F5777}">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="64.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="64.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21">
+    <row r="4" spans="1:6" ht="21">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -576,11 +583,14 @@
       <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="84">
+    <row r="5" spans="1:6" ht="84">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -593,85 +603,96 @@
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
